--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miw7eGETvh+CB6w/KQZfXa6diV5Kw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mim2Pbo7CC3VPOMQfW1naeQ2TvYpQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Number of user questions</t>
   </si>
   <si>
+    <t>Number of occurrences - user questions</t>
+  </si>
+  <si>
     <t>Expert/User/Both</t>
   </si>
   <si>
@@ -178,6 +181,23 @@
   </si>
   <si>
     <t>DECORATIVEPURPOSE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Total Percentage</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>: 91,8%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -232,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -242,9 +262,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -470,9 +496,10 @@
     <col customWidth="1" min="1" max="1" width="33.63"/>
     <col customWidth="1" min="2" max="2" width="26.5"/>
     <col customWidth="1" min="3" max="3" width="39.0"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
-    <col customWidth="1" min="5" max="5" width="12.25"/>
-    <col customWidth="1" min="6" max="26" width="7.63"/>
+    <col customWidth="1" min="4" max="4" width="34.13"/>
+    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" min="6" max="6" width="12.25"/>
+    <col customWidth="1" min="7" max="27" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,10 +515,12 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -512,652 +541,933 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
         <v>10987.0</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+      <c r="C2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>92494.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1518048.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>166.0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>296083.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>19750.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>103178.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>28545.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>28519.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>92494.0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="F10" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>418897.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>379752.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>258.0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>201834.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>120059.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5">
+        <v>175679.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5">
+        <v>12008.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8065.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1639.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5">
+        <v>19951.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5">
+        <v>301120.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5">
+        <v>489090.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>64.0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>218.0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5">
+        <v>449409.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5">
+        <v>587757.0</v>
+      </c>
+      <c r="C24" s="5">
         <v>4.0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="D24" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="F24" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5">
+        <v>109745.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5">
+        <v>298682.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5">
+        <v>396.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5">
+        <v>16175.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7165.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1573.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5">
+        <v>17892.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5">
+        <v>26368.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5">
+        <v>100456.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5">
+        <v>20474.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <v>1518048.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>296083.0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>19750.0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="F34" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1343.0</v>
+      </c>
+      <c r="C35" s="5">
         <v>2.0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>103178.0</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="D35" s="6">
         <v>2.0</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>28545.0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>28519.0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>118.0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4">
-        <v>418897.0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
-        <v>379752.0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>201834.0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>120059.0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>175679.0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4">
-        <v>12008.0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4">
-        <v>8065.0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1639.0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4">
-        <v>19951.0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4">
-        <v>301120.0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4">
-        <v>489090.0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>64.0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4">
-        <v>449409.0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4">
-        <v>587757.0</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="E35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5">
+        <v>20382.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="5">
+        <v>457103.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5">
+        <v>233792.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D38" s="6">
         <v>4.0</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4">
-        <v>109745.0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4">
-        <v>298682.0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="4">
-        <v>396.0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4">
-        <v>16175.0</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="5">
+        <v>325119.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5">
+        <v>388382.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5">
+        <v>140366.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="5">
+        <v>58773.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="5">
+        <v>13699.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="5">
+        <v>428941.0</v>
+      </c>
+      <c r="C44" s="5">
         <v>3.0</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="4">
-        <v>7165.0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1573.0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="4">
-        <v>17892.0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4">
-        <v>26368.0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4">
-        <v>100456.0</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="D44" s="6">
         <v>3.0</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="4">
-        <v>20474.0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1343.0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="4">
-        <v>20382.0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="4">
-        <v>457103.0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="4">
-        <v>233792.0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4">
-        <v>325119.0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4">
-        <v>388382.0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="4">
-        <v>140366.0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="4">
-        <v>58773.0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="4">
-        <v>13699.0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="4">
-        <v>428941.0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>8</v>
+      <c r="E44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="A45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="5">
         <v>435232.0</v>
       </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>6</v>
+      <c r="C45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.94</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="5">
         <v>2860.0</v>
       </c>
-      <c r="C46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
+      <c r="C46" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="A47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="5">
         <v>2515.0</v>
       </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="C47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="F48" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
